--- a/biology/Écologie/Barrière_canadienne/Barrière_canadienne.xlsx
+++ b/biology/Écologie/Barrière_canadienne/Barrière_canadienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barri%C3%A8re_canadienne</t>
+          <t>Barrière_canadienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La barrière canadienne, aussi appelée passage canadien, pas canadien ou grille à bétail, également désignée par le mot-valise bovistop, est un système de confinement des grands animaux (sauvages ou domestiques) qui permet de se passer de barrière mobile, en laissant, dans un système de clôture, une ouverture permettant la libre circulation des piétons et des véhicules. Dans la province canadienne d'Alberta, le système est appelé Texas gate (« portail texan » ou « porte texane »)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La barrière canadienne, aussi appelée passage canadien, pas canadien ou grille à bétail, également désignée par le mot-valise bovistop, est un système de confinement des grands animaux (sauvages ou domestiques) qui permet de se passer de barrière mobile, en laissant, dans un système de clôture, une ouverture permettant la libre circulation des piétons et des véhicules. Dans la province canadienne d'Alberta, le système est appelé Texas gate (« portail texan » ou « porte texane »),.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barri%C3%A8re_canadienne</t>
+          <t>Barrière_canadienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est constituée de solides barres arrondies ou de section rectangulaire alignées au-dessus d'une fosse. La plupart des animaux sont effrayés par cette structure qu'ils ne connaissent pas et le vide qui est dessous. Ils ne franchissent généralement pas l'aménagement[3],[4]. Les chevaux le passent s'ils y sont encouragés.
-Ces dispositifs doivent être équipés d'échappatoires pour éviter que les petits animaux (lapins, grenouilles, lézards par exemple) ne meurent piégés dans la fosse[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est constituée de solides barres arrondies ou de section rectangulaire alignées au-dessus d'une fosse. La plupart des animaux sont effrayés par cette structure qu'ils ne connaissent pas et le vide qui est dessous. Ils ne franchissent généralement pas l'aménagement,. Les chevaux le passent s'ils y sont encouragés.
+Ces dispositifs doivent être équipés d'échappatoires pour éviter que les petits animaux (lapins, grenouilles, lézards par exemple) ne meurent piégés dans la fosse.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barri%C3%A8re_canadienne</t>
+          <t>Barrière_canadienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce système est notamment utilisé :
 sur les routes d'alpage fréquentées par les randonneurs et les membres du personnel d'exploitation ;
